--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Cleveland_Cavaliers__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Cleveland_Cavaliers__.xlsx
@@ -588,79 +588,79 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>796</v>
+        <v>829</v>
       </c>
       <c r="G2" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H2" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="I2" t="n">
-        <v>0.466</v>
+        <v>0.47</v>
       </c>
       <c r="J2" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K2" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L2" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="M2" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N2" t="n">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="O2" t="n">
-        <v>0.528</v>
+        <v>0.534</v>
       </c>
       <c r="P2" t="n">
-        <v>0.554</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R2" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="S2" t="n">
-        <v>0.879</v>
+        <v>0.885</v>
       </c>
       <c r="T2" t="n">
         <v>11</v>
       </c>
       <c r="U2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V2" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="W2" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="X2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
-        <v>443</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="G3" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H3" t="n">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="I3" t="n">
-        <v>0.71</v>
+        <v>0.704</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M3" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="N3" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="O3" t="n">
-        <v>0.719</v>
+        <v>0.716</v>
       </c>
       <c r="P3" t="n">
-        <v>0.713</v>
+        <v>0.707</v>
       </c>
       <c r="Q3" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="R3" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S3" t="n">
-        <v>0.677</v>
+        <v>0.68</v>
       </c>
       <c r="T3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="V3" t="n">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="W3" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
@@ -764,79 +764,79 @@
         <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>729</v>
+        <v>752</v>
       </c>
       <c r="G4" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H4" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="I4" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="J4" t="n">
         <v>47</v>
       </c>
       <c r="K4" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L4" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="M4" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N4" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="O4" t="n">
-        <v>0.368</v>
+        <v>0.372</v>
       </c>
       <c r="P4" t="n">
         <v>0.435</v>
       </c>
       <c r="Q4" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="R4" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
-        <v>0.842</v>
+        <v>0.852</v>
       </c>
       <c r="T4" t="n">
         <v>11</v>
       </c>
       <c r="U4" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="V4" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="W4" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
         <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA4" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB4" t="n">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
@@ -852,22 +852,22 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="G5" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H5" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="I5" t="n">
-        <v>0.465</v>
+        <v>0.477</v>
       </c>
       <c r="J5" t="n">
         <v>14</v>
@@ -879,16 +879,16 @@
         <v>0.333</v>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N5" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="O5" t="n">
-        <v>0.493</v>
+        <v>0.505</v>
       </c>
       <c r="P5" t="n">
-        <v>0.494</v>
+        <v>0.504</v>
       </c>
       <c r="Q5" t="n">
         <v>51</v>
@@ -900,31 +900,31 @@
         <v>0.785</v>
       </c>
       <c r="T5" t="n">
+        <v>38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>142</v>
+      </c>
+      <c r="V5" t="n">
+        <v>180</v>
+      </c>
+      <c r="W5" t="n">
+        <v>56</v>
+      </c>
+      <c r="X5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z5" t="n">
         <v>37</v>
       </c>
-      <c r="U5" t="n">
-        <v>134</v>
-      </c>
-      <c r="V5" t="n">
-        <v>171</v>
-      </c>
-      <c r="W5" t="n">
-        <v>55</v>
-      </c>
-      <c r="X5" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>36</v>
-      </c>
       <c r="AA5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB5" t="n">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6">
@@ -940,64 +940,64 @@
         <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="G6" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I6" t="n">
-        <v>0.359</v>
+        <v>0.37</v>
       </c>
       <c r="J6" t="n">
         <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L6" t="n">
-        <v>0.218</v>
+        <v>0.214</v>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N6" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O6" t="n">
-        <v>0.461</v>
+        <v>0.476</v>
       </c>
       <c r="P6" t="n">
-        <v>0.405</v>
+        <v>0.413</v>
       </c>
       <c r="Q6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S6" t="n">
-        <v>0.743</v>
+        <v>0.73</v>
       </c>
       <c r="T6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U6" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V6" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
@@ -1006,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
@@ -1028,64 +1028,64 @@
         <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="G7" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H7" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I7" t="n">
-        <v>0.406</v>
+        <v>0.414</v>
       </c>
       <c r="J7" t="n">
+        <v>40</v>
+      </c>
+      <c r="K7" t="n">
+        <v>118</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="M7" t="n">
+        <v>47</v>
+      </c>
+      <c r="N7" t="n">
+        <v>92</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>33</v>
+      </c>
+      <c r="R7" t="n">
         <v>38</v>
       </c>
-      <c r="K7" t="n">
-        <v>114</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="M7" t="n">
-        <v>44</v>
-      </c>
-      <c r="N7" t="n">
-        <v>88</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>31</v>
-      </c>
-      <c r="R7" t="n">
-        <v>36</v>
-      </c>
       <c r="S7" t="n">
-        <v>0.861</v>
+        <v>0.868</v>
       </c>
       <c r="T7" t="n">
         <v>21</v>
       </c>
       <c r="U7" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1094,13 +1094,13 @@
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB7" t="n">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8">
@@ -1116,43 +1116,43 @@
         <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="G8" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I8" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="J8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L8" t="n">
-        <v>0.407</v>
+        <v>0.414</v>
       </c>
       <c r="M8" t="n">
         <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" t="n">
-        <v>0.577</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6</v>
+        <v>0.604</v>
       </c>
       <c r="Q8" t="n">
         <v>20</v>
@@ -1167,28 +1167,28 @@
         <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V8" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W8" t="n">
+        <v>34</v>
+      </c>
+      <c r="X8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
         <v>33</v>
       </c>
-      <c r="X8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>30</v>
-      </c>
       <c r="AB8" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -1204,31 +1204,31 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H9" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I9" t="n">
-        <v>0.403</v>
+        <v>0.421</v>
       </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K9" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L9" t="n">
-        <v>0.298</v>
+        <v>0.333</v>
       </c>
       <c r="M9" t="n">
         <v>15</v>
@@ -1240,7 +1240,7 @@
         <v>0.6</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5</v>
+        <v>0.533</v>
       </c>
       <c r="Q9" t="n">
         <v>5</v>
@@ -1255,10 +1255,10 @@
         <v>12</v>
       </c>
       <c r="U9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V9" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W9" t="n">
         <v>21</v>
@@ -1276,7 +1276,7 @@
         <v>32</v>
       </c>
       <c r="AB9" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -1292,43 +1292,43 @@
         <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H10" t="n">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I10" t="n">
-        <v>0.405</v>
+        <v>0.403</v>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K10" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L10" t="n">
-        <v>0.361</v>
+        <v>0.371</v>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O10" t="n">
-        <v>0.462</v>
+        <v>0.443</v>
       </c>
       <c r="P10" t="n">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="Q10" t="n">
         <v>37</v>
@@ -1343,13 +1343,13 @@
         <v>21</v>
       </c>
       <c r="U10" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="V10" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="W10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X10" t="n">
         <v>4</v>
@@ -1358,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G12" t="n">
         <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" t="n">
-        <v>0.459</v>
+        <v>0.447</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n">
-        <v>0.417</v>
+        <v>0.4</v>
       </c>
       <c r="M12" t="n">
         <v>7</v>
@@ -1504,7 +1504,7 @@
         <v>0.538</v>
       </c>
       <c r="P12" t="n">
-        <v>0.595</v>
+        <v>0.579</v>
       </c>
       <c r="Q12" t="n">
         <v>3</v>
@@ -1516,19 +1516,19 @@
         <v>0.75</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
         <v>24</v>
       </c>
       <c r="V12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W12" t="n">
         <v>18</v>
       </c>
       <c r="X12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="n">
-        <v>0.37</v>
+        <v>0.383</v>
       </c>
       <c r="J13" t="n">
         <v>6</v>
@@ -1583,16 +1583,16 @@
         <v>0.375</v>
       </c>
       <c r="M13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O13" t="n">
-        <v>0.367</v>
+        <v>0.387</v>
       </c>
       <c r="P13" t="n">
-        <v>0.435</v>
+        <v>0.447</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
@@ -1607,13 +1607,13 @@
         <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X13" t="n">
         <v>4</v>
@@ -1625,10 +1625,10 @@
         <v>6</v>
       </c>
       <c r="AA13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -1644,13 +1644,13 @@
         <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -1816,22 +1816,22 @@
         <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>0.333</v>
+        <v>0.25</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
         <v>1</v>
@@ -1882,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB16" t="n">
         <v>4</v>
@@ -2066,77 +2066,77 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>6000</v>
+        <v>6240</v>
       </c>
       <c r="G19" t="n">
-        <v>963</v>
+        <v>1007</v>
       </c>
       <c r="H19" t="n">
-        <v>2133</v>
+        <v>2213</v>
       </c>
       <c r="I19" t="n">
-        <v>0.451</v>
+        <v>0.455</v>
       </c>
       <c r="J19" t="n">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="K19" t="n">
-        <v>862</v>
+        <v>890</v>
       </c>
       <c r="L19" t="n">
-        <v>0.347</v>
+        <v>0.351</v>
       </c>
       <c r="M19" t="n">
-        <v>664</v>
+        <v>695</v>
       </c>
       <c r="N19" t="n">
-        <v>1271</v>
+        <v>1323</v>
       </c>
       <c r="O19" t="n">
-        <v>0.522</v>
+        <v>0.525</v>
       </c>
       <c r="P19" t="n">
-        <v>0.522</v>
+        <v>0.526</v>
       </c>
       <c r="Q19" t="n">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="R19" t="n">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S19" t="n">
-        <v>0.783</v>
+        <v>0.786</v>
       </c>
       <c r="T19" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="U19" t="n">
-        <v>866</v>
+        <v>903</v>
       </c>
       <c r="V19" t="n">
-        <v>1127</v>
+        <v>1169</v>
       </c>
       <c r="W19" t="n">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="X19" t="n">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Z19" t="n">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="AA19" t="n">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="AB19" t="n">
-        <v>2614</v>
+        <v>2729</v>
       </c>
     </row>
   </sheetData>
